--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Documentos\Ingenieria\Quinto Semestre\BASE DE DATOS 2\Bases de datos II\QuerysBD\QuerysBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Documentos\Ingenieria\Quinto Semestre\BASE DE DATOS 2\QuerysBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B37D051-B616-434B-9987-EBE52E2D84AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A3C541-A06B-4287-9CB2-23C0C0EC90CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{463796EE-D8B4-407C-BE8C-1C1F3747AC9A}"/>
   </bookViews>
@@ -890,9 +890,6 @@
     <t>Zamora</t>
   </si>
   <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
     <t>Calle</t>
   </si>
   <si>
@@ -3240,6 +3237,9 @@
   </si>
   <si>
     <t>Calle Reserva de la Biosfera Sian Kaan</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -3600,8 +3600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE2BB78-972F-448D-8FAC-B1EF6FE3E461}">
   <dimension ref="A1:F488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3622,16 +3622,16 @@
         <v>255</v>
       </c>
       <c r="C1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" t="s">
         <v>284</v>
-      </c>
-      <c r="D1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,13 +3645,13 @@
         <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,13 +3665,13 @@
         <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,13 +3685,13 @@
         <v>261</v>
       </c>
       <c r="D4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3705,13 +3705,13 @@
         <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3725,13 +3725,13 @@
         <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3745,13 +3745,13 @@
         <v>261</v>
       </c>
       <c r="D7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3765,13 +3765,13 @@
         <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3785,13 +3785,13 @@
         <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,13 +3805,13 @@
         <v>261</v>
       </c>
       <c r="D10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3822,16 +3822,16 @@
         <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3842,16 +3842,16 @@
         <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3862,16 +3862,16 @@
         <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D13" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3882,16 +3882,16 @@
         <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D14" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3902,16 +3902,16 @@
         <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D15" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3922,16 +3922,16 @@
         <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D16" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3942,16 +3942,16 @@
         <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D17" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3962,16 +3962,16 @@
         <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D18" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3982,16 +3982,16 @@
         <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4002,16 +4002,16 @@
         <v>162</v>
       </c>
       <c r="C20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D20" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4022,16 +4022,16 @@
         <v>163</v>
       </c>
       <c r="C21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D21" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,13 +4045,13 @@
         <v>268</v>
       </c>
       <c r="D22" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,13 +4065,13 @@
         <v>268</v>
       </c>
       <c r="D23" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,13 +4085,13 @@
         <v>268</v>
       </c>
       <c r="D24" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,13 +4105,13 @@
         <v>268</v>
       </c>
       <c r="D25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,13 +4125,13 @@
         <v>268</v>
       </c>
       <c r="D26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4145,13 +4145,13 @@
         <v>268</v>
       </c>
       <c r="D27" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,13 +4165,13 @@
         <v>268</v>
       </c>
       <c r="D28" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,13 +4185,13 @@
         <v>268</v>
       </c>
       <c r="D29" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,13 +4205,13 @@
         <v>268</v>
       </c>
       <c r="D30" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,13 +4225,13 @@
         <v>268</v>
       </c>
       <c r="D31" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,13 +4245,13 @@
         <v>268</v>
       </c>
       <c r="D32" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,13 +4265,13 @@
         <v>263</v>
       </c>
       <c r="D33" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E33" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4285,13 +4285,13 @@
         <v>263</v>
       </c>
       <c r="D34" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E34" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,13 +4305,13 @@
         <v>263</v>
       </c>
       <c r="D35" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E35" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,13 +4325,13 @@
         <v>263</v>
       </c>
       <c r="D36" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,13 +4345,13 @@
         <v>263</v>
       </c>
       <c r="D37" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E37" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4365,13 +4365,13 @@
         <v>263</v>
       </c>
       <c r="D38" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E38" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4382,16 +4382,16 @@
         <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D39" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4402,16 +4402,16 @@
         <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D40" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4422,16 +4422,16 @@
         <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D41" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4442,16 +4442,16 @@
         <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D42" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4462,16 +4462,16 @@
         <v>185</v>
       </c>
       <c r="C43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D43" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4482,16 +4482,16 @@
         <v>186</v>
       </c>
       <c r="C44" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D44" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4502,16 +4502,16 @@
         <v>187</v>
       </c>
       <c r="C45" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D45" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4522,16 +4522,16 @@
         <v>188</v>
       </c>
       <c r="C46" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E46" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4542,16 +4542,16 @@
         <v>189</v>
       </c>
       <c r="C47" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D47" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E47" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4562,16 +4562,16 @@
         <v>190</v>
       </c>
       <c r="C48" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D48" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4582,16 +4582,16 @@
         <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D49" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4602,16 +4602,16 @@
         <v>192</v>
       </c>
       <c r="C50" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D50" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4622,16 +4622,16 @@
         <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D51" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E51" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4642,16 +4642,16 @@
         <v>194</v>
       </c>
       <c r="C52" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D52" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4662,16 +4662,16 @@
         <v>195</v>
       </c>
       <c r="C53" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D53" t="s">
         <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4682,16 +4682,16 @@
         <v>196</v>
       </c>
       <c r="C54" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D54" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E54" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4702,16 +4702,16 @@
         <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D55" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E55" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4722,16 +4722,16 @@
         <v>198</v>
       </c>
       <c r="C56" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D56" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E56" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4742,16 +4742,16 @@
         <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D57" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E57" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4762,16 +4762,16 @@
         <v>200</v>
       </c>
       <c r="C58" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D58" t="s">
         <v>280</v>
       </c>
       <c r="E58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4782,16 +4782,16 @@
         <v>201</v>
       </c>
       <c r="C59" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D59" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E59" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -4802,16 +4802,16 @@
         <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D60" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E60" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4822,16 +4822,16 @@
         <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D61" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4842,16 +4842,16 @@
         <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D62" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E62" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F62" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4862,16 +4862,16 @@
         <v>205</v>
       </c>
       <c r="C63" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D63" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4882,16 +4882,16 @@
         <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D64" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E64" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4902,16 +4902,16 @@
         <v>206</v>
       </c>
       <c r="C65" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D65" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E65" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4922,16 +4922,16 @@
         <v>207</v>
       </c>
       <c r="C66" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D66" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E66" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4942,16 +4942,16 @@
         <v>208</v>
       </c>
       <c r="C67" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D67" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E67" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4962,16 +4962,16 @@
         <v>209</v>
       </c>
       <c r="C68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D68" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E68" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4982,16 +4982,16 @@
         <v>210</v>
       </c>
       <c r="C69" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D69" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E69" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -5002,16 +5002,16 @@
         <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D70" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E70" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -5022,16 +5022,16 @@
         <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D71" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E71" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -5042,16 +5042,16 @@
         <v>212</v>
       </c>
       <c r="C72" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D72" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E72" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F72" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -5062,16 +5062,16 @@
         <v>213</v>
       </c>
       <c r="C73" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D73" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E73" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,16 +5082,16 @@
         <v>214</v>
       </c>
       <c r="C74" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D74" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E74" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -5102,16 +5102,16 @@
         <v>215</v>
       </c>
       <c r="C75" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D75" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E75" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -5125,13 +5125,13 @@
         <v>266</v>
       </c>
       <c r="D76" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5145,13 +5145,13 @@
         <v>266</v>
       </c>
       <c r="D77" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E77" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -5165,13 +5165,13 @@
         <v>266</v>
       </c>
       <c r="D78" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E78" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -5185,13 +5185,13 @@
         <v>266</v>
       </c>
       <c r="D79" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E79" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -5205,13 +5205,13 @@
         <v>266</v>
       </c>
       <c r="D80" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E80" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -5225,13 +5225,13 @@
         <v>266</v>
       </c>
       <c r="D81" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F81" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -5245,13 +5245,13 @@
         <v>266</v>
       </c>
       <c r="D82" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E82" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F82" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -5265,13 +5265,13 @@
         <v>266</v>
       </c>
       <c r="D83" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E83" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F83" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -5285,13 +5285,13 @@
         <v>266</v>
       </c>
       <c r="D84" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E84" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F84" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,13 +5305,13 @@
         <v>266</v>
       </c>
       <c r="D85" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E85" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F85" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -5322,16 +5322,16 @@
         <v>225</v>
       </c>
       <c r="C86" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D86" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E86" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F86" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -5342,16 +5342,16 @@
         <v>226</v>
       </c>
       <c r="C87" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D87" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E87" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F87" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -5362,16 +5362,16 @@
         <v>227</v>
       </c>
       <c r="C88" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D88" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5382,16 +5382,16 @@
         <v>228</v>
       </c>
       <c r="C89" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D89" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E89" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F89" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -5402,16 +5402,16 @@
         <v>229</v>
       </c>
       <c r="C90" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D90" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E90" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F90" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -5422,16 +5422,16 @@
         <v>195</v>
       </c>
       <c r="C91" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D91" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E91" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F91" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -5442,16 +5442,16 @@
         <v>230</v>
       </c>
       <c r="C92" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D92" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E92" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -5462,16 +5462,16 @@
         <v>231</v>
       </c>
       <c r="C93" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D93" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F93" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -5482,16 +5482,16 @@
         <v>232</v>
       </c>
       <c r="C94" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D94" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E94" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F94" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -5502,16 +5502,16 @@
         <v>233</v>
       </c>
       <c r="C95" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D95" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E95" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5522,16 +5522,16 @@
         <v>234</v>
       </c>
       <c r="C96" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D96" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F96" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5542,16 +5542,16 @@
         <v>170</v>
       </c>
       <c r="C97" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D97" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E97" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -5562,16 +5562,16 @@
         <v>235</v>
       </c>
       <c r="C98" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D98" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E98" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F98" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -5582,16 +5582,16 @@
         <v>166</v>
       </c>
       <c r="C99" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D99" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E99" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F99" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -5602,16 +5602,16 @@
         <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D100" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E100" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F100" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -5622,16 +5622,16 @@
         <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D101" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F101" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -5642,16 +5642,16 @@
         <v>166</v>
       </c>
       <c r="C102" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D102" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E102" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F102" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -5662,16 +5662,16 @@
         <v>236</v>
       </c>
       <c r="C103" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D103" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E103" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -5682,16 +5682,16 @@
         <v>162</v>
       </c>
       <c r="C104" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D104" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E104" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F104" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -5702,16 +5702,16 @@
         <v>237</v>
       </c>
       <c r="C105" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D105" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E105" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F105" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -5722,16 +5722,16 @@
         <v>238</v>
       </c>
       <c r="C106" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D106" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E106" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -5742,16 +5742,16 @@
         <v>239</v>
       </c>
       <c r="C107" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D107" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F107" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -5762,16 +5762,16 @@
         <v>240</v>
       </c>
       <c r="C108" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D108" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E108" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F108" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -5782,16 +5782,16 @@
         <v>241</v>
       </c>
       <c r="C109" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D109" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E109" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F109" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -5802,16 +5802,16 @@
         <v>242</v>
       </c>
       <c r="C110" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D110" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E110" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F110" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -5822,16 +5822,16 @@
         <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D111" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E111" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F111" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -5842,16 +5842,16 @@
         <v>243</v>
       </c>
       <c r="C112" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D112" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E112" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F112" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -5862,16 +5862,16 @@
         <v>153</v>
       </c>
       <c r="C113" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D113" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E113" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F113" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -5882,36 +5882,36 @@
         <v>244</v>
       </c>
       <c r="C114" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D114" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E114" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B115" t="s">
         <v>167</v>
       </c>
       <c r="C115" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D115" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E115" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F115" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -5922,16 +5922,16 @@
         <v>181</v>
       </c>
       <c r="C116" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D116" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E116" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F116" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -5942,16 +5942,16 @@
         <v>190</v>
       </c>
       <c r="C117" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D117" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E117" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F117" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -5962,16 +5962,16 @@
         <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D118" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E118" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F118" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -5982,16 +5982,16 @@
         <v>170</v>
       </c>
       <c r="C119" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D119" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E119" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F119" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -6002,16 +6002,16 @@
         <v>165</v>
       </c>
       <c r="C120" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D120" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E120" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F120" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -6022,16 +6022,16 @@
         <v>234</v>
       </c>
       <c r="C121" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D121" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E121" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -6042,16 +6042,16 @@
         <v>246</v>
       </c>
       <c r="C122" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D122" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E122" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -6062,16 +6062,16 @@
         <v>203</v>
       </c>
       <c r="C123" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D123" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E123" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F123" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -6082,36 +6082,36 @@
         <v>178</v>
       </c>
       <c r="C124" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D124" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E124" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B125" t="s">
         <v>247</v>
       </c>
       <c r="C125" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D125" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E125" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F125" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -6122,16 +6122,16 @@
         <v>186</v>
       </c>
       <c r="C126" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D126" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E126" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -6142,16 +6142,16 @@
         <v>158</v>
       </c>
       <c r="C127" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D127" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E127" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F127" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -6162,16 +6162,16 @@
         <v>248</v>
       </c>
       <c r="C128" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D128" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E128" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F128" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -6182,16 +6182,16 @@
         <v>249</v>
       </c>
       <c r="C129" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D129" t="s">
         <v>282</v>
       </c>
       <c r="E129" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F129" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -6202,16 +6202,16 @@
         <v>146</v>
       </c>
       <c r="C130" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D130" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E130" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F130" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -6222,16 +6222,16 @@
         <v>220</v>
       </c>
       <c r="C131" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D131" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E131" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F131" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -6242,16 +6242,16 @@
         <v>163</v>
       </c>
       <c r="C132" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D132" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E132" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F132" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -6262,16 +6262,16 @@
         <v>196</v>
       </c>
       <c r="C133" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D133" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E133" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F133" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -6282,16 +6282,16 @@
         <v>202</v>
       </c>
       <c r="C134" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D134" t="s">
         <v>280</v>
       </c>
       <c r="E134" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F134" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -6302,16 +6302,16 @@
         <v>250</v>
       </c>
       <c r="C135" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D135" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E135" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F135" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -6322,16 +6322,16 @@
         <v>251</v>
       </c>
       <c r="C136" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D136" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E136" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F136" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -6342,16 +6342,16 @@
         <v>252</v>
       </c>
       <c r="C137" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D137" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E137" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F137" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -6362,16 +6362,16 @@
         <v>176</v>
       </c>
       <c r="C138" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D138" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E138" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F138" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -6382,16 +6382,16 @@
         <v>185</v>
       </c>
       <c r="C139" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D139" t="s">
         <v>283</v>
       </c>
       <c r="E139" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F139" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -6402,16 +6402,16 @@
         <v>160</v>
       </c>
       <c r="C140" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E140" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F140" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -6422,16 +6422,16 @@
         <v>184</v>
       </c>
       <c r="C141" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D141" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E141" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F141" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -6442,16 +6442,16 @@
         <v>189</v>
       </c>
       <c r="C142" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D142" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E142" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F142" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -6462,16 +6462,16 @@
         <v>174</v>
       </c>
       <c r="C143" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D143" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E143" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F143" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -6482,16 +6482,16 @@
         <v>188</v>
       </c>
       <c r="C144" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D144" t="s">
         <v>279</v>
       </c>
       <c r="E144" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F144" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -6502,16 +6502,16 @@
         <v>253</v>
       </c>
       <c r="C145" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D145" t="s">
         <v>279</v>
       </c>
       <c r="E145" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F145" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -6522,16 +6522,16 @@
         <v>194</v>
       </c>
       <c r="C146" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D146" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E146" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,16 +6542,16 @@
         <v>205</v>
       </c>
       <c r="C147" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D147" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E147" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F147" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -6562,16 +6562,16 @@
         <v>191</v>
       </c>
       <c r="C148" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D148" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E148" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F148" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -6582,16 +6582,16 @@
         <v>213</v>
       </c>
       <c r="C149" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D149" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E149" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F149" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -6602,16 +6602,16 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D150" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E150" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F150" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -6622,16 +6622,16 @@
         <v>177</v>
       </c>
       <c r="C151" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D151" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E151" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F151" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -6642,16 +6642,16 @@
         <v>207</v>
       </c>
       <c r="C152" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D152" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E152" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F152" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -6662,16 +6662,16 @@
         <v>171</v>
       </c>
       <c r="C153" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D153" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E153" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F153" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -6682,16 +6682,16 @@
         <v>195</v>
       </c>
       <c r="C154" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D154" t="s">
         <v>279</v>
       </c>
       <c r="E154" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -6702,16 +6702,16 @@
         <v>193</v>
       </c>
       <c r="C155" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D155" t="s">
         <v>279</v>
       </c>
       <c r="E155" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F155" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -6722,16 +6722,16 @@
         <v>214</v>
       </c>
       <c r="C156" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D156" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E156" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F156" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -6742,16 +6742,16 @@
         <v>187</v>
       </c>
       <c r="C157" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D157" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E157" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F157" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -6762,16 +6762,16 @@
         <v>198</v>
       </c>
       <c r="C158" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D158" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E158" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F158" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -6782,16 +6782,16 @@
         <v>212</v>
       </c>
       <c r="C159" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D159" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E159" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F159" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -6802,16 +6802,16 @@
         <v>204</v>
       </c>
       <c r="C160" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D160" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E160" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F160" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -6822,16 +6822,16 @@
         <v>227</v>
       </c>
       <c r="C161" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D161" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E161" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F161" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -6842,16 +6842,16 @@
         <v>211</v>
       </c>
       <c r="C162" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D162" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E162" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F162" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -6862,16 +6862,16 @@
         <v>221</v>
       </c>
       <c r="C163" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D163" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E163" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F163" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -6882,16 +6882,16 @@
         <v>236</v>
       </c>
       <c r="C164" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D164" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E164" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F164" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -6902,16 +6902,16 @@
         <v>230</v>
       </c>
       <c r="C165" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D165" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E165" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F165" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -6922,16 +6922,16 @@
         <v>232</v>
       </c>
       <c r="C166" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D166" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E166" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F166" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -6942,16 +6942,16 @@
         <v>222</v>
       </c>
       <c r="C167" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D167" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E167" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F167" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6962,16 +6962,16 @@
         <v>219</v>
       </c>
       <c r="C168" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D168" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E168" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F168" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -6982,16 +6982,16 @@
         <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D169" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E169" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F169" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -7002,16 +7002,16 @@
         <v>218</v>
       </c>
       <c r="C170" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D170" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E170" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F170" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -7022,16 +7022,16 @@
         <v>223</v>
       </c>
       <c r="C171" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D171" t="s">
         <v>279</v>
       </c>
       <c r="E171" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F171" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -7042,16 +7042,16 @@
         <v>224</v>
       </c>
       <c r="C172" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D172" t="s">
         <v>279</v>
       </c>
       <c r="E172" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F172" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -7062,16 +7062,16 @@
         <v>237</v>
       </c>
       <c r="C173" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D173" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E173" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F173" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -7085,13 +7085,13 @@
         <v>256</v>
       </c>
       <c r="D174" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E174" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F174" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -7105,13 +7105,13 @@
         <v>256</v>
       </c>
       <c r="D175" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E175" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F175" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -7125,13 +7125,13 @@
         <v>256</v>
       </c>
       <c r="D176" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E176" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -7145,13 +7145,13 @@
         <v>256</v>
       </c>
       <c r="D177" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E177" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F177" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -7165,13 +7165,13 @@
         <v>256</v>
       </c>
       <c r="D178" t="s">
+        <v>655</v>
+      </c>
+      <c r="E178" t="s">
         <v>656</v>
       </c>
-      <c r="E178" t="s">
-        <v>657</v>
-      </c>
       <c r="F178" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -7185,13 +7185,13 @@
         <v>256</v>
       </c>
       <c r="D179" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E179" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F179" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -7205,13 +7205,13 @@
         <v>256</v>
       </c>
       <c r="D180" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E180" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F180" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -7225,13 +7225,13 @@
         <v>256</v>
       </c>
       <c r="D181" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E181" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F181" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -7245,13 +7245,13 @@
         <v>256</v>
       </c>
       <c r="D182" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E182" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F182" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -7265,13 +7265,13 @@
         <v>256</v>
       </c>
       <c r="D183" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E183" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F183" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -7285,13 +7285,13 @@
         <v>256</v>
       </c>
       <c r="D184" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E184" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F184" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -7305,13 +7305,13 @@
         <v>256</v>
       </c>
       <c r="D185" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E185" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F185" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -7325,13 +7325,13 @@
         <v>256</v>
       </c>
       <c r="D186" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E186" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F186" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -7345,13 +7345,13 @@
         <v>256</v>
       </c>
       <c r="D187" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E187" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F187" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -7365,13 +7365,13 @@
         <v>256</v>
       </c>
       <c r="D188" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E188" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F188" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -7385,13 +7385,13 @@
         <v>256</v>
       </c>
       <c r="D189" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E189" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F189" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -7402,16 +7402,16 @@
         <v>220</v>
       </c>
       <c r="C190" t="s">
+        <v>668</v>
+      </c>
+      <c r="D190" t="s">
+        <v>964</v>
+      </c>
+      <c r="E190" t="s">
         <v>669</v>
       </c>
-      <c r="D190" t="s">
-        <v>965</v>
-      </c>
-      <c r="E190" t="s">
-        <v>670</v>
-      </c>
       <c r="F190" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -7422,16 +7422,16 @@
         <v>251</v>
       </c>
       <c r="C191" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D191" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E191" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F191" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -7442,16 +7442,16 @@
         <v>181</v>
       </c>
       <c r="C192" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D192" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E192" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F192" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -7462,16 +7462,16 @@
         <v>253</v>
       </c>
       <c r="C193" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D193" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E193" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F193" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -7482,16 +7482,16 @@
         <v>246</v>
       </c>
       <c r="C194" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D194" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E194" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F194" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -7502,16 +7502,16 @@
         <v>247</v>
       </c>
       <c r="C195" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D195" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E195" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F195" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -7522,16 +7522,16 @@
         <v>146</v>
       </c>
       <c r="C196" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D196" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E196" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F196" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -7542,16 +7542,16 @@
         <v>153</v>
       </c>
       <c r="C197" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D197" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E197" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F197" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -7562,16 +7562,16 @@
         <v>245</v>
       </c>
       <c r="C198" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D198" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E198" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F198" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -7582,16 +7582,16 @@
         <v>165</v>
       </c>
       <c r="C199" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D199" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E199" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F199" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -7602,16 +7602,16 @@
         <v>160</v>
       </c>
       <c r="C200" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D200" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E200" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F200" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -7622,101 +7622,101 @@
         <v>166</v>
       </c>
       <c r="C201" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D201" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E201" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F201" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D202" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E202" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D203" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E203" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D204" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E204" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D205" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E205" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D206" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E206" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D207" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E207" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D208" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E208" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D209" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E209" t="s">
         <v>269</v>
@@ -7724,120 +7724,120 @@
     </row>
     <row r="210" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D210" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E210" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="211" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D211" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E211" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D212" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E212" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="213" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D213" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E213" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="214" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D214" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E214" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="215" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D215" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E215" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="216" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D216" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E216" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="217" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D217" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E217" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="218" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D218" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E218" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="219" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D219" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E219" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="220" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D220" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E220" t="s">
         <v>272</v>
@@ -7845,10 +7845,10 @@
     </row>
     <row r="221" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D221" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E221" t="s">
         <v>265</v>
@@ -7856,21 +7856,21 @@
     </row>
     <row r="222" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D222" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E222" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="223" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D223" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E223" t="s">
         <v>281</v>
@@ -7878,32 +7878,32 @@
     </row>
     <row r="224" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D224" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E224" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="225" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D225" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E225" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="226" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D226" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E226" t="s">
         <v>277</v>
@@ -7911,43 +7911,43 @@
     </row>
     <row r="227" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D227" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E227" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="228" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D228" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E228" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="229" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D229" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E229" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D230" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E230" t="s">
         <v>270</v>
@@ -7955,32 +7955,32 @@
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D231" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E231" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D232" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E232" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D233" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E233" t="s">
         <v>273</v>
@@ -7988,87 +7988,87 @@
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D234" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E234" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D235" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E235" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D236" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E236" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="237" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D237" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E237" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D238" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E238" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D239" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E239" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D240" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E240" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="241" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D241" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E241" t="s">
         <v>267</v>
@@ -8076,109 +8076,109 @@
     </row>
     <row r="242" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D242" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E242" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="243" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D243" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E243" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="244" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D244" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E244" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="245" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D245" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E245" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="246" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D246" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E246" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="247" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D247" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E247" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="248" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D248" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E248" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="249" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D249" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E249" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="250" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D250" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E250" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="251" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D251" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E251" t="s">
         <v>260</v>
@@ -8186,98 +8186,98 @@
     </row>
     <row r="252" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D252" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E252" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="253" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D253" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E253" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="254" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D254" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E254" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="255" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D255" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E255" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="256" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D256" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E256" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="257" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D257" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E257" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="258" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D258" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E258" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="259" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D259" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E259" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="260" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D260" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E260" t="s">
         <v>275</v>
@@ -8285,560 +8285,560 @@
     </row>
     <row r="261" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D261" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E261" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="262" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D262" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E262" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="263" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D263" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E263" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="264" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D264" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E264" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="265" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D265" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E265" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="266" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D266" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E266" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="267" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D267" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E267" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="268" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D268" t="s">
         <v>282</v>
       </c>
       <c r="E268" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="269" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D269" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E269" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="270" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D270" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E270" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="271" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D271" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E271" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="272" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D272" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E272" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="273" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D273" t="s">
         <v>280</v>
       </c>
       <c r="E273" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="274" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D274" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E274" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="275" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D275" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E275" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="276" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D276" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E276" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="277" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D277" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E277" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="278" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D278" t="s">
         <v>283</v>
       </c>
       <c r="E278" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="279" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D279" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E279" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="280" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D280" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E280" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D281" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E281" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="282" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D282" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E282" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="283" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D283" t="s">
         <v>279</v>
       </c>
       <c r="E283" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D284" t="s">
         <v>279</v>
       </c>
       <c r="E284" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="285" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D285" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E285" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="286" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D286" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E286" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="287" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D287" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E287" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D288" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E288" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="289" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C289" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D289" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E289" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="290" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C290" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D290" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E290" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D291" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E291" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="292" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D292" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E292" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D293" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E293" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="294" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D294" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E294" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="295" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D295" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E295" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D296" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E296" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="297" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C297" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D297" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E297" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D298" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E298" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="299" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D299" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E299" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="300" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D300" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E300" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="301" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D301" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E301" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D302" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E302" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="303" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D303" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E303" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="304" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D304" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E304" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D305" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E305" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="306" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D306" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E306" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="307" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D307" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E307" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D308" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E308" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="309" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D309" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E309" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="310" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D310" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E310" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D311" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E311" t="s">
         <v>155</v>
@@ -8846,32 +8846,32 @@
     </row>
     <row r="312" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C312" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D312" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E312" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="313" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C313" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D313" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E313" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="314" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C314" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D314" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E314" t="s">
         <v>258</v>
@@ -8879,54 +8879,54 @@
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C315" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D315" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E315" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C316" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D316" t="s">
         <v>264</v>
       </c>
       <c r="E316" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="317" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C317" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D317" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E317" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="318" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D318" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E318" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C319" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D319" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E319" t="s">
         <v>279</v>
@@ -8934,10 +8934,10 @@
     </row>
     <row r="320" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C320" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D320" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E320" t="s">
         <v>276</v>
@@ -8945,43 +8945,43 @@
     </row>
     <row r="321" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C321" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D321" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E321" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="322" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C322" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D322" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E322" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="323" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C323" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D323" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E323" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="324" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C324" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D324" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E324" t="s">
         <v>282</v>
@@ -8989,483 +8989,483 @@
     </row>
     <row r="325" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C325" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D325" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E325" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="326" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C326" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D326" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E326" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="327" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C327" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D327" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E327" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="328" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C328" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D328" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E328" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C329" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D329" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E329" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="330" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C330" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D330" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E330" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="331" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C331" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D331" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E331" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C332" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D332" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E332" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="333" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D333" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E333" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C334" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D334" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E334" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="335" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C335" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D335" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E335" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="336" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D336" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E336" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C337" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D337" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E337" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="338" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D338" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E338" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="339" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C339" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D339" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E339" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="340" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C340" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D340" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E340" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="341" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D341" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E341" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="342" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C342" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D342" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E342" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="343" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D343" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E343" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D344" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E344" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="345" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D345" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E345" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D346" t="s">
         <v>264</v>
       </c>
       <c r="E346" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D347" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E347" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="348" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D348" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E348" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="349" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C349" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D349" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E349" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="350" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C350" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D350" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E350" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C351" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D351" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E351" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C352" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D352" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E352" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D353" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E353" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C354" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D354" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E354" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D355" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E355" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="356" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C356" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D356" t="s">
         <v>257</v>
       </c>
       <c r="E356" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="357" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C357" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D357" t="s">
         <v>257</v>
       </c>
       <c r="E357" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D358" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E358" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="359" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C359" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D359" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E359" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C360" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D360" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E360" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D361" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E361" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="362" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D362" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E362" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="363" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D363" t="s">
         <v>259</v>
       </c>
       <c r="E363" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D364" t="s">
         <v>259</v>
       </c>
       <c r="E364" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="365" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C365" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D365" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E365" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D366" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E366" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="367" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C367" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D367" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E367" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="368" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C368" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D368" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E368" t="s">
         <v>278</v>
@@ -9473,153 +9473,153 @@
     </row>
     <row r="369" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C369" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D369" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E369" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="370" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C370" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D370" t="s">
         <v>262</v>
       </c>
       <c r="E370" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D371" t="s">
         <v>262</v>
       </c>
       <c r="E371" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="372" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C372" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D372" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E372" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="373" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C373" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D373" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E373" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C374" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D374" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E374" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="375" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C375" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D375" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E375" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="376" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C376" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D376" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E376" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C377" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D377" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E377" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="378" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C378" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D378" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E378" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="379" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C379" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D379" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E379" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C380" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D380" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E380" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="381" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C381" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D381" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E381" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="382" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C382" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D382" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E382" t="s">
         <v>271</v>
@@ -9627,131 +9627,131 @@
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C383" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D383" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E383" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="384" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C384" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D384" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E384" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="385" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C385" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D385" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E385" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C386" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D386" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E386" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="387" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C387" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D387" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E387" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="388" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C388" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D388" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E388" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C389" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D389" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E389" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="390" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C390" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D390" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E390" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="391" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C391" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D391" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E391" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C392" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D392" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E392" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="393" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C393" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D393" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E393" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="394" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C394" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D394" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E394" t="s">
         <v>257</v>
@@ -9759,1036 +9759,1036 @@
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C395" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D395" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E395" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="396" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C396" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D396" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E396" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="397" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C397" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D397" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E397" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="398" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C398" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D398" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E398" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C399" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D399" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E399" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="400" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C400" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D400" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E400" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C401" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D401" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E401" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="402" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C402" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D402" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E402" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="403" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C403" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D403" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E403" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="404" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C404" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D404" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E404" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C405" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D405" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E405" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C406" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D406" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E406" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C407" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D407" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E407" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C408" t="s">
+        <v>869</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E408" t="s">
         <v>870</v>
-      </c>
-      <c r="D408" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E408" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="409" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C409" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D409" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E409" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="410" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C410" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D410" t="s">
         <v>278</v>
       </c>
       <c r="E410" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C411" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D411" t="s">
         <v>278</v>
       </c>
       <c r="E411" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="412" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C412" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D412" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E412" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="413" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C413" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D413" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E413" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="414" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C414" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D414" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E414" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="415" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C415" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D415" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E415" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="416" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C416" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D416" t="s">
         <v>274</v>
       </c>
       <c r="E416" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="417" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C417" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D417" t="s">
         <v>274</v>
       </c>
       <c r="E417" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C418" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D418" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E418" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="419" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C419" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D419" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E419" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="420" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C420" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D420" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E420" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="421" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C421" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D421" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E421" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C422" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D422" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E422" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="423" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C423" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D423" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E423" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="424" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C424" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D424" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E424" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C425" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D425" t="s">
         <v>282</v>
       </c>
       <c r="E425" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="426" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C426" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D426" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E426" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="427" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C427" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D427" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E427" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="428" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C428" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D428" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E428" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C429" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D429" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E429" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="430" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C430" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D430" t="s">
         <v>280</v>
       </c>
       <c r="E430" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="431" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C431" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D431" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E431" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="432" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C432" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D432" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E432" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C433" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D433" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E433" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="434" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C434" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D434" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E434" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="435" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C435" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D435" t="s">
         <v>283</v>
       </c>
       <c r="E435" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="436" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C436" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D436" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E436" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="437" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C437" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D437" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E437" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="438" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C438" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D438" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E438" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="439" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C439" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D439" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E439" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="440" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C440" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D440" t="s">
         <v>279</v>
       </c>
       <c r="E440" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="441" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C441" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D441" t="s">
         <v>279</v>
       </c>
       <c r="E441" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="442" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C442" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D442" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E442" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="443" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C443" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D443" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E443" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="444" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C444" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D444" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E444" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="445" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C445" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D445" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E445" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="446" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C446" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D446" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E446" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="447" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C447" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D447" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E447" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="448" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C448" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D448" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E448" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="449" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C449" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D449" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E449" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="450" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C450" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D450" t="s">
         <v>279</v>
       </c>
       <c r="E450" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="451" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C451" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D451" t="s">
         <v>279</v>
       </c>
       <c r="E451" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="452" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C452" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D452" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E452" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="453" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C453" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D453" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E453" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="454" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C454" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D454" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E454" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="455" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C455" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D455" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E455" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="456" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C456" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D456" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E456" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="457" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C457" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D457" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E457" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="458" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C458" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D458" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E458" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="459" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C459" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D459" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E459" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="460" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C460" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D460" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E460" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="461" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C461" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D461" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E461" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="462" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C462" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D462" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E462" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="463" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C463" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D463" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E463" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="464" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C464" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D464" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E464" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="465" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C465" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D465" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E465" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="466" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C466" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D466" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E466" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="467" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C467" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D467" t="s">
         <v>279</v>
       </c>
       <c r="E467" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C468" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D468" t="s">
         <v>279</v>
       </c>
       <c r="E468" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C469" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D469" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E469" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="470" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C470" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D470" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E470" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="471" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C471" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D471" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E471" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="472" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C472" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D472" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E472" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="473" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C473" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D473" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E473" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="474" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C474" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D474" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E474" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="475" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C475" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D475" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E475" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="476" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C476" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D476" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E476" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="477" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C477" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D477" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E477" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="478" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C478" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D478" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E478" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="479" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C479" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D479" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E479" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C480" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D480" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E480" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="481" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C481" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D481" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E481" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C482" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D482" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E482" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="483" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C483" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D483" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E483" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C484" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D484" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E484" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="485" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C485" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D485" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E485" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="486" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C486" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D486" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E486" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="487" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C487" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D487" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E487" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="488" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C488" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D488" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E488" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -10798,20 +10798,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a2099ca4-a6f9-4b6e-a55a-8a0c54139de8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a2099ca4-a6f9-4b6e-a55a-8a0c54139de8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11056,6 +11056,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06AC7B95-E586-4700-B799-91C0089F8940}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45B3C636-D958-49EF-9500-76767F94CB3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -11068,14 +11076,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="9a14ec50-8658-4235-b61e-07a146064bcc"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06AC7B95-E586-4700-B799-91C0089F8940}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
